--- a/data/excel files/in/statusReference.xlsx
+++ b/data/excel files/in/statusReference.xlsx
@@ -8,10 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="PARADE STATE CATEGORIES" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="MORE DOMINANT STATUS" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="DEFINITE STATUS" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="INDEFINITE STATUS" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="INSTRUCTIONS" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="PARADE STATE CATEGORIES" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="MORE DOMINANT STATUS" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="DEFINITE STATUS" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="INDEFINITE STATUS" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
   <si>
     <t xml:space="preserve">-</t>
   </si>
@@ -200,6 +201,18 @@
   </si>
   <si>
     <t xml:space="preserve">CMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdpc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cse</t>
   </si>
   <si>
     <t xml:space="preserve">COURSE</t>
@@ -324,6 +337,48 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247320</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Picture 1" descr="status_edit_instructions.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7585560" cy="10695960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,6 +561,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -615,7 +694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -702,15 +781,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -730,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>21</v>
       </c>
@@ -741,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>22</v>
       </c>
@@ -752,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>23</v>
       </c>
@@ -763,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
@@ -774,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>25</v>
       </c>
@@ -785,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>26</v>
       </c>
@@ -796,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>27</v>
       </c>
@@ -807,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>28</v>
       </c>
@@ -818,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>29</v>
       </c>
@@ -829,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>30</v>
       </c>
@@ -840,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>31</v>
       </c>
@@ -851,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>3</v>
       </c>
@@ -862,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>32</v>
       </c>
@@ -873,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>33</v>
       </c>
@@ -884,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>34</v>
       </c>
@@ -895,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>35</v>
       </c>
@@ -906,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>36</v>
       </c>
@@ -917,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>37</v>
       </c>
@@ -928,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>38</v>
       </c>
@@ -939,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>39</v>
       </c>
@@ -950,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>40</v>
       </c>
@@ -961,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>41</v>
       </c>
@@ -972,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>42</v>
       </c>
@@ -983,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>43</v>
       </c>
@@ -994,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>44</v>
       </c>
@@ -1005,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>45</v>
       </c>
@@ -1016,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>46</v>
       </c>
@@ -1027,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>47</v>
       </c>
@@ -1038,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>48</v>
       </c>
@@ -1049,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>49</v>
       </c>
@@ -1060,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>50</v>
       </c>
@@ -1071,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>51</v>
       </c>
@@ -1082,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>52</v>
       </c>
@@ -1093,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>53</v>
       </c>
@@ -1104,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>54</v>
       </c>
@@ -1115,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>55</v>
       </c>
@@ -1126,7 +1205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>56</v>
       </c>
@@ -1137,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>57</v>
       </c>
@@ -1148,7 +1227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>58</v>
       </c>
@@ -1159,7 +1238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +1271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>12</v>
       </c>
@@ -1225,7 +1304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>14</v>
       </c>
@@ -1247,7 +1326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>16</v>
       </c>
@@ -1269,7 +1348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>17</v>
       </c>
@@ -1278,6 +1357,28 @@
       </c>
       <c r="C51" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1291,15 +1392,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1336,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,16 +1445,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/excel files/in/statusReference.xlsx
+++ b/data/excel files/in/statusReference.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
   <si>
     <t>-</t>
   </si>
@@ -139,67 +139,70 @@
     <t>U/S</t>
   </si>
   <si>
+    <t>SITE ESCORT</t>
+  </si>
+  <si>
+    <t>RSAF55</t>
+  </si>
+  <si>
+    <t>DSO TRAINING</t>
+  </si>
+  <si>
+    <t>NDP</t>
+  </si>
+  <si>
+    <t>IMT</t>
+  </si>
+  <si>
+    <t>ATP IMT</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>O/S ME</t>
+  </si>
+  <si>
+    <t>202 SQN AUDIT</t>
+  </si>
+  <si>
+    <t>SITE FAM</t>
+  </si>
+  <si>
+    <t>CONVOY</t>
+  </si>
+  <si>
+    <t>CS IMT</t>
+  </si>
+  <si>
+    <t>GTT</t>
+  </si>
+  <si>
+    <t>SIC</t>
+  </si>
+  <si>
+    <t>RIGGER</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>OEMP</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>RDPC</t>
+  </si>
+  <si>
     <t>ESCORT</t>
-  </si>
-  <si>
-    <t>RSAF55</t>
-  </si>
-  <si>
-    <t>DSO TRAINING</t>
-  </si>
-  <si>
-    <t>NDP</t>
-  </si>
-  <si>
-    <t>IMT</t>
-  </si>
-  <si>
-    <t>ATP IMT</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>O/S ME</t>
-  </si>
-  <si>
-    <t>202 SQN AUDIT</t>
-  </si>
-  <si>
-    <t>SITE FAM</t>
-  </si>
-  <si>
-    <t>CONVOY</t>
-  </si>
-  <si>
-    <t>CS IMT</t>
-  </si>
-  <si>
-    <t>GTT</t>
-  </si>
-  <si>
-    <t>SIC</t>
-  </si>
-  <si>
-    <t>RIGGER</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>OEMP</t>
-  </si>
-  <si>
-    <t>CMD</t>
-  </si>
-  <si>
-    <t>RDPC</t>
   </si>
   <si>
     <t>CPC</t>
@@ -1001,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1393,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1401,16 +1404,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
